--- a/sequences/retrieval_practice.xlsx
+++ b/sequences/retrieval_practice.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elena\Nextcloud\Masterthesis_EMS-TMR\EMS-TMR-Experiment\sequences\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8591299-7A24-48B4-A562-A39C3122B261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78FF6518-F378-4E6F-BF47-603D0B791F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10276" xr2:uid="{E931975B-4258-42EC-9D21-008D202C8584}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="33">
   <si>
     <t>word</t>
   </si>
@@ -80,91 +80,61 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>flower/flower282.png</t>
-  </si>
-  <si>
-    <t>new/uncued</t>
-  </si>
-  <si>
-    <t>face/face357.png</t>
-  </si>
-  <si>
-    <t>new/cued</t>
-  </si>
-  <si>
-    <t>face/face198.png</t>
-  </si>
-  <si>
-    <t>flower/flower296.png</t>
-  </si>
-  <si>
     <t>dog</t>
   </si>
   <si>
-    <t>correct/old/uncued</t>
-  </si>
-  <si>
-    <t>same/old/uncued</t>
-  </si>
-  <si>
-    <t>other/old/uncued</t>
-  </si>
-  <si>
-    <t>other/new/uncued</t>
-  </si>
-  <si>
     <t>flower</t>
   </si>
   <si>
-    <t>lernen</t>
-  </si>
-  <si>
-    <t>car</t>
-  </si>
-  <si>
-    <t>dog/dog005.png</t>
-  </si>
-  <si>
-    <t>flower/flower008.png</t>
-  </si>
-  <si>
-    <t>car/car011.png</t>
+    <t>practice_encoding/dogxxx.png</t>
+  </si>
+  <si>
+    <t>practice_encoding/facexxx.png</t>
+  </si>
+  <si>
+    <t>practice_encoding/flowerxxx.png</t>
+  </si>
+  <si>
+    <t>buffer/house/house271.png</t>
+  </si>
+  <si>
+    <t>buffer/house/house265</t>
+  </si>
+  <si>
+    <t>buffer/flower/flower265.png</t>
+  </si>
+  <si>
+    <t>buffer/dog/dog272.png</t>
+  </si>
+  <si>
+    <t>buffer/face/face276.png</t>
+  </si>
+  <si>
+    <t>buffer/face/face278.png</t>
+  </si>
+  <si>
+    <t>buffer/flower/flower271.png</t>
+  </si>
+  <si>
+    <t>buffer/flower/flower266.png</t>
+  </si>
+  <si>
+    <t>buffer/face/face215.png</t>
+  </si>
+  <si>
+    <t>face</t>
   </si>
   <si>
     <t>bauen</t>
   </si>
   <si>
-    <t>dürfen</t>
-  </si>
-  <si>
-    <t>füllen</t>
-  </si>
-  <si>
-    <t>flower/flower051.png</t>
-  </si>
-  <si>
-    <t>car/car014.png</t>
-  </si>
-  <si>
-    <t>flower/flower013.png</t>
-  </si>
-  <si>
-    <t>flower/flower003.png</t>
-  </si>
-  <si>
-    <t>face/face016.png</t>
-  </si>
-  <si>
-    <t>face/face009.png</t>
-  </si>
-  <si>
-    <t>dog/dog034.png</t>
-  </si>
-  <si>
-    <t>face/face051.png</t>
-  </si>
-  <si>
-    <t>face/face045.png</t>
+    <t>folgen</t>
+  </si>
+  <si>
+    <t>leeren</t>
+  </si>
+  <si>
+    <t>warnen</t>
   </si>
 </sst>
 </file>
@@ -565,17 +535,17 @@
   <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -616,10 +586,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
@@ -627,32 +597,32 @@
       <c r="E2" t="b">
         <v>1</v>
       </c>
-      <c r="F2" t="s">
-        <v>13</v>
+      <c r="F2" t="b">
+        <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="K2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="L2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="N2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.45">
@@ -660,13 +630,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -675,28 +645,28 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="H3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="I3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="J3" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K3" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="L3" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M3" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="N3" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.45">
@@ -704,43 +674,43 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" t="s">
         <v>25</v>
       </c>
-      <c r="E4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L4" t="s">
-        <v>23</v>
-      </c>
-      <c r="M4" t="s">
-        <v>37</v>
-      </c>
       <c r="N4" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.45">
@@ -748,43 +718,43 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" t="s">
         <v>26</v>
       </c>
-      <c r="C5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" t="s">
-        <v>34</v>
-      </c>
       <c r="L5" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M5" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N5" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/retrieval_practice.xlsx
+++ b/sequences/retrieval_practice.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elena\Nextcloud\Masterthesis_EMS-TMR\EMS-TMR-Experiment\sequences\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78FF6518-F378-4E6F-BF47-603D0B791F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{187466AF-BA9D-4E3A-9334-54D0D23430B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10276" xr2:uid="{E931975B-4258-42EC-9D21-008D202C8584}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
   <si>
     <t>word</t>
   </si>
@@ -53,27 +53,15 @@
     <t>cued</t>
   </si>
   <si>
-    <t>image1</t>
-  </si>
-  <si>
     <t>type1</t>
   </si>
   <si>
-    <t>image2</t>
-  </si>
-  <si>
     <t>type2</t>
   </si>
   <si>
-    <t>image3</t>
-  </si>
-  <si>
     <t>type3</t>
   </si>
   <si>
-    <t>image4</t>
-  </si>
-  <si>
     <t>type4</t>
   </si>
   <si>
@@ -125,16 +113,31 @@
     <t>face</t>
   </si>
   <si>
-    <t>bauen</t>
-  </si>
-  <si>
-    <t>folgen</t>
-  </si>
-  <si>
-    <t>leeren</t>
-  </si>
-  <si>
-    <t>warnen</t>
+    <t>beginnen</t>
+  </si>
+  <si>
+    <t>verlassen</t>
+  </si>
+  <si>
+    <t>erinnern</t>
+  </si>
+  <si>
+    <t>geschehen</t>
+  </si>
+  <si>
+    <t>iti</t>
+  </si>
+  <si>
+    <t>image_top</t>
+  </si>
+  <si>
+    <t>image_right</t>
+  </si>
+  <si>
+    <t>image_bottom</t>
+  </si>
+  <si>
+    <t>image_left</t>
   </si>
 </sst>
 </file>
@@ -166,7 +169,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -189,13 +192,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -532,15 +549,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA346A12-A7BB-4CB6-9D8E-EC7B07C4AE96}">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
@@ -557,42 +574,45 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
+      <c r="O1" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -601,42 +621,45 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="L2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="M2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="N2" t="s">
-        <v>13</v>
+        <v>9</v>
+      </c>
+      <c r="O2">
+        <v>1.1351010053757959</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -645,116 +668,125 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="M3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N3" t="s">
-        <v>13</v>
+        <v>9</v>
+      </c>
+      <c r="O3">
+        <v>1.101215866370167</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" t="s">
         <v>13</v>
       </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" t="s">
         <v>21</v>
       </c>
-      <c r="J4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L4" t="s">
-        <v>13</v>
-      </c>
-      <c r="M4" t="s">
-        <v>25</v>
-      </c>
       <c r="N4" t="s">
-        <v>13</v>
+        <v>9</v>
+      </c>
+      <c r="O4">
+        <v>1.232576476035504</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
         <v>15</v>
       </c>
-      <c r="E5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
       <c r="H5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="L5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="M5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N5" t="s">
-        <v>13</v>
+        <v>9</v>
+      </c>
+      <c r="O5">
+        <v>1.015820934783024</v>
       </c>
     </row>
   </sheetData>
